--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptprz1-Ncam1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptprz1-Ncam1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="H2">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="I2">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="J2">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6816986666666667</v>
+        <v>0.9949870000000001</v>
       </c>
       <c r="N2">
-        <v>2.045096</v>
+        <v>2.984961</v>
       </c>
       <c r="O2">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="P2">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="Q2">
-        <v>0.01260142708622222</v>
+        <v>0.04911620660566667</v>
       </c>
       <c r="R2">
-        <v>0.113412843776</v>
+        <v>0.4420458594510001</v>
       </c>
       <c r="S2">
-        <v>3.038316721454702E-05</v>
+        <v>0.00177987456789344</v>
       </c>
       <c r="T2">
-        <v>3.038316721454702E-05</v>
+        <v>0.00177987456789344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="H3">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="I3">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="J3">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +629,22 @@
         <v>25.409186</v>
       </c>
       <c r="O3">
-        <v>0.1379997063732728</v>
+        <v>0.3282159160005915</v>
       </c>
       <c r="P3">
-        <v>0.1379997063732728</v>
+        <v>0.3282159160005916</v>
       </c>
       <c r="Q3">
-        <v>0.1565657576462222</v>
+        <v>0.4180968626584444</v>
       </c>
       <c r="R3">
-        <v>1.409091818816</v>
+        <v>3.762871763926</v>
       </c>
       <c r="S3">
-        <v>0.0003774940379441978</v>
+        <v>0.01515100664707983</v>
       </c>
       <c r="T3">
-        <v>0.0003774940379441978</v>
+        <v>0.01515100664707983</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.04936366666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.148091</v>
+      </c>
+      <c r="I4">
+        <v>0.04616170608573571</v>
+      </c>
+      <c r="J4">
+        <v>0.0461617060857357</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.01848533333333334</v>
-      </c>
-      <c r="H4">
-        <v>0.05545600000000001</v>
-      </c>
-      <c r="I4">
-        <v>0.002735469863414935</v>
-      </c>
-      <c r="J4">
-        <v>0.002735469863414935</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.3748256666666667</v>
+        <v>0.04495399999999999</v>
       </c>
       <c r="N4">
-        <v>1.124477</v>
+        <v>0.134862</v>
       </c>
       <c r="O4">
-        <v>0.006107141559886992</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="P4">
-        <v>0.006107141559886992</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="Q4">
-        <v>0.006928777390222223</v>
+        <v>0.002219094271333333</v>
       </c>
       <c r="R4">
-        <v>0.062358996512</v>
+        <v>0.019971848442</v>
       </c>
       <c r="S4">
-        <v>1.670590168867975E-05</v>
+        <v>8.041560475170197E-05</v>
       </c>
       <c r="T4">
-        <v>1.670590168867975E-05</v>
+        <v>8.041560475170197E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +723,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="H5">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="I5">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="J5">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>51.70379466666666</v>
+        <v>15.96019966666667</v>
       </c>
       <c r="N5">
-        <v>155.111384</v>
+        <v>47.880599</v>
       </c>
       <c r="O5">
-        <v>0.8424246824416952</v>
+        <v>0.6184839868322428</v>
       </c>
       <c r="P5">
-        <v>0.8424246824416952</v>
+        <v>0.6184839868322429</v>
       </c>
       <c r="Q5">
-        <v>0.9557618790115556</v>
+        <v>0.7878539762787778</v>
       </c>
       <c r="R5">
-        <v>8.601856911104001</v>
+        <v>7.090685786509001</v>
       </c>
       <c r="S5">
-        <v>0.002304427331016155</v>
+        <v>0.02855027601888403</v>
       </c>
       <c r="T5">
-        <v>0.002304427331016155</v>
+        <v>0.02855027601888403</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,57 +785,57 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="H6">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="I6">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="J6">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1449283333333333</v>
+        <v>0.3268106666666666</v>
       </c>
       <c r="N6">
-        <v>0.434785</v>
+        <v>0.980432</v>
       </c>
       <c r="O6">
-        <v>0.002361358696634494</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="P6">
-        <v>0.002361358696634494</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="Q6">
-        <v>0.002679048551111111</v>
+        <v>0.01613257281244444</v>
       </c>
       <c r="R6">
-        <v>0.02411143696</v>
+        <v>0.145193155312</v>
       </c>
       <c r="S6">
-        <v>6.459425551356428E-06</v>
+        <v>0.0005846126573676846</v>
       </c>
       <c r="T6">
-        <v>6.459425551356428E-06</v>
+        <v>0.0005846126573676846</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -841,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,46 +853,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.008616666666666667</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="H7">
-        <v>0.02585</v>
+        <v>0.148091</v>
       </c>
       <c r="I7">
-        <v>0.001275099105043207</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="J7">
-        <v>0.001275099105043207</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.6816986666666667</v>
+        <v>0.008676333333333333</v>
       </c>
       <c r="N7">
-        <v>2.045096</v>
+        <v>0.026029</v>
       </c>
       <c r="O7">
-        <v>0.01110711092851045</v>
+        <v>0.0003362221866367304</v>
       </c>
       <c r="P7">
-        <v>0.01110711092851045</v>
+        <v>0.0003362221866367304</v>
       </c>
       <c r="Q7">
-        <v>0.005873970177777778</v>
+        <v>0.0004282956265555555</v>
       </c>
       <c r="R7">
-        <v>0.0528657316</v>
+        <v>0.003854660639</v>
       </c>
       <c r="S7">
-        <v>1.41626672045593E-05</v>
+        <v>1.552058975902812E-05</v>
       </c>
       <c r="T7">
-        <v>1.41626672045593E-05</v>
+        <v>1.552058975902812E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +906,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -918,10 +921,10 @@
         <v>0.02585</v>
       </c>
       <c r="I8">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="J8">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.469728666666667</v>
+        <v>0.9949870000000001</v>
       </c>
       <c r="N8">
-        <v>25.409186</v>
+        <v>2.984961</v>
       </c>
       <c r="O8">
-        <v>0.1379997063732728</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="P8">
-        <v>0.1379997063732728</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="Q8">
-        <v>0.07298082867777778</v>
+        <v>0.008573471316666668</v>
       </c>
       <c r="R8">
-        <v>0.6568274581</v>
+        <v>0.07716124185000001</v>
       </c>
       <c r="S8">
-        <v>0.0001759633020927855</v>
+        <v>0.0003106857106782007</v>
       </c>
       <c r="T8">
-        <v>0.0001759633020927855</v>
+        <v>0.0003106857106782007</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +968,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,10 +983,10 @@
         <v>0.02585</v>
       </c>
       <c r="I9">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="J9">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3748256666666667</v>
+        <v>8.469728666666667</v>
       </c>
       <c r="N9">
-        <v>1.124477</v>
+        <v>25.409186</v>
       </c>
       <c r="O9">
-        <v>0.006107141559886992</v>
+        <v>0.3282159160005915</v>
       </c>
       <c r="P9">
-        <v>0.006107141559886992</v>
+        <v>0.3282159160005916</v>
       </c>
       <c r="Q9">
-        <v>0.003229747827777778</v>
+        <v>0.07298082867777778</v>
       </c>
       <c r="R9">
-        <v>0.02906773045</v>
+        <v>0.6568274581000001</v>
       </c>
       <c r="S9">
-        <v>7.787210737384076E-06</v>
+        <v>0.002644681458204843</v>
       </c>
       <c r="T9">
-        <v>7.787210737384078E-06</v>
+        <v>0.002644681458204844</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1030,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,40 +1045,40 @@
         <v>0.02585</v>
       </c>
       <c r="I10">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="J10">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>51.70379466666666</v>
+        <v>0.04495399999999999</v>
       </c>
       <c r="N10">
-        <v>155.111384</v>
+        <v>0.134862</v>
       </c>
       <c r="O10">
-        <v>0.8424246824416952</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="P10">
-        <v>0.8424246824416952</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="Q10">
-        <v>0.4455143640444444</v>
+        <v>0.0003873536333333333</v>
       </c>
       <c r="R10">
-        <v>4.0096292764</v>
+        <v>0.0034861827</v>
       </c>
       <c r="S10">
-        <v>0.001074174958647713</v>
+        <v>1.403693258085566E-05</v>
       </c>
       <c r="T10">
-        <v>0.001074174958647713</v>
+        <v>1.403693258085566E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1092,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,45 +1107,45 @@
         <v>0.02585</v>
       </c>
       <c r="I11">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="J11">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1449283333333333</v>
+        <v>15.96019966666667</v>
       </c>
       <c r="N11">
-        <v>0.434785</v>
+        <v>47.880599</v>
       </c>
       <c r="O11">
-        <v>0.002361358696634494</v>
+        <v>0.6184839868322428</v>
       </c>
       <c r="P11">
-        <v>0.002361358696634494</v>
+        <v>0.6184839868322429</v>
       </c>
       <c r="Q11">
-        <v>0.001248799138888889</v>
+        <v>0.1375237204611111</v>
       </c>
       <c r="R11">
-        <v>0.01123919225</v>
+        <v>1.23771348415</v>
       </c>
       <c r="S11">
-        <v>3.010966360764636E-06</v>
+        <v>0.004983588706188438</v>
       </c>
       <c r="T11">
-        <v>3.010966360764636E-06</v>
+        <v>0.004983588706188439</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1151,60 +1154,60 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>6.730542666666667</v>
+        <v>0.008616666666666667</v>
       </c>
       <c r="H12">
-        <v>20.191628</v>
+        <v>0.02585</v>
       </c>
       <c r="I12">
-        <v>0.9959894310315418</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="J12">
-        <v>0.9959894310315418</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6816986666666667</v>
+        <v>0.3268106666666666</v>
       </c>
       <c r="N12">
-        <v>2.045096</v>
+        <v>0.980432</v>
       </c>
       <c r="O12">
-        <v>0.01110711092851045</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="P12">
-        <v>0.01110711092851045</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="Q12">
-        <v>4.588201961809778</v>
+        <v>0.002816018577777777</v>
       </c>
       <c r="R12">
-        <v>41.29381765628801</v>
+        <v>0.0253441672</v>
       </c>
       <c r="S12">
-        <v>0.01106256509409135</v>
+        <v>0.0001020469656694508</v>
       </c>
       <c r="T12">
-        <v>0.01106256509409135</v>
+        <v>0.0001020469656694508</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -1213,55 +1216,55 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>6.730542666666667</v>
+        <v>0.008616666666666667</v>
       </c>
       <c r="H13">
-        <v>20.191628</v>
+        <v>0.02585</v>
       </c>
       <c r="I13">
-        <v>0.9959894310315418</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="J13">
-        <v>0.9959894310315418</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>8.469728666666667</v>
+        <v>0.008676333333333333</v>
       </c>
       <c r="N13">
-        <v>25.409186</v>
+        <v>0.026029</v>
       </c>
       <c r="O13">
-        <v>0.1379997063732728</v>
+        <v>0.0003362221866367304</v>
       </c>
       <c r="P13">
-        <v>0.1379997063732728</v>
+        <v>0.0003362221866367304</v>
       </c>
       <c r="Q13">
-        <v>57.00587016608979</v>
+        <v>7.476107222222222E-05</v>
       </c>
       <c r="R13">
-        <v>513.0528314948079</v>
+        <v>0.00067284965</v>
       </c>
       <c r="S13">
-        <v>0.1374462490332359</v>
+        <v>2.709193977155107E-06</v>
       </c>
       <c r="T13">
-        <v>0.1374462490332359</v>
+        <v>2.709193977155108E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,7 +1278,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="H14">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="I14">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="J14">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3748256666666667</v>
+        <v>0.9949870000000001</v>
       </c>
       <c r="N14">
-        <v>1.124477</v>
+        <v>2.984961</v>
       </c>
       <c r="O14">
-        <v>0.006107141559886992</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="P14">
-        <v>0.006107141559886992</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="Q14">
-        <v>2.522780142061778</v>
+        <v>1.006313600345667</v>
       </c>
       <c r="R14">
-        <v>22.705021278556</v>
+        <v>9.056822403110999</v>
       </c>
       <c r="S14">
-        <v>0.006082648447460927</v>
+        <v>0.03646682242707827</v>
       </c>
       <c r="T14">
-        <v>0.006082648447460927</v>
+        <v>0.03646682242707827</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,7 +1340,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="H15">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="I15">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="J15">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>51.70379466666666</v>
+        <v>8.469728666666667</v>
       </c>
       <c r="N15">
-        <v>155.111384</v>
+        <v>25.409186</v>
       </c>
       <c r="O15">
-        <v>0.8424246824416952</v>
+        <v>0.3282159160005915</v>
       </c>
       <c r="P15">
-        <v>0.8424246824416952</v>
+        <v>0.3282159160005916</v>
       </c>
       <c r="Q15">
-        <v>347.9945960325724</v>
+        <v>8.566145234565109</v>
       </c>
       <c r="R15">
-        <v>3131.951364293152</v>
+        <v>77.095307111086</v>
       </c>
       <c r="S15">
-        <v>0.8390460801520313</v>
+        <v>0.3104202278953069</v>
       </c>
       <c r="T15">
-        <v>0.8390460801520313</v>
+        <v>0.3104202278953069</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,7 +1402,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="H16">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="I16">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="J16">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1429,214 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1449283333333333</v>
+        <v>0.04495399999999999</v>
       </c>
       <c r="N16">
-        <v>0.434785</v>
+        <v>0.134862</v>
       </c>
       <c r="O16">
-        <v>0.002361358696634494</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="P16">
-        <v>0.002361358696634494</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="Q16">
-        <v>0.9754463311088889</v>
+        <v>0.04546574135133332</v>
       </c>
       <c r="R16">
-        <v>8.77901697998</v>
+        <v>0.4091916721619999</v>
       </c>
       <c r="S16">
-        <v>0.002351888304722372</v>
+        <v>0.001647588898535233</v>
       </c>
       <c r="T16">
-        <v>0.002351888304722372</v>
+        <v>0.001647588898535233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.011383666666666</v>
+      </c>
+      <c r="H17">
+        <v>3.034151</v>
+      </c>
+      <c r="I17">
+        <v>0.9457805449469654</v>
+      </c>
+      <c r="J17">
+        <v>0.9457805449469653</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>15.96019966666667</v>
+      </c>
+      <c r="N17">
+        <v>47.880599</v>
+      </c>
+      <c r="O17">
+        <v>0.6184839868322428</v>
+      </c>
+      <c r="P17">
+        <v>0.6184839868322429</v>
+      </c>
+      <c r="Q17">
+        <v>16.14188525960544</v>
+      </c>
+      <c r="R17">
+        <v>145.276967336449</v>
+      </c>
+      <c r="S17">
+        <v>0.5849501221071703</v>
+      </c>
+      <c r="T17">
+        <v>0.5849501221071705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.011383666666666</v>
+      </c>
+      <c r="H18">
+        <v>3.034151</v>
+      </c>
+      <c r="I18">
+        <v>0.9457805449469654</v>
+      </c>
+      <c r="J18">
+        <v>0.9457805449469653</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.3268106666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.980432</v>
+      </c>
+      <c r="O18">
+        <v>0.01266445083901121</v>
+      </c>
+      <c r="P18">
+        <v>0.01266445083901121</v>
+      </c>
+      <c r="Q18">
+        <v>0.330530970359111</v>
+      </c>
+      <c r="R18">
+        <v>2.974778733232</v>
+      </c>
+      <c r="S18">
+        <v>0.01197779121597408</v>
+      </c>
+      <c r="T18">
+        <v>0.01197779121597408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.011383666666666</v>
+      </c>
+      <c r="H19">
+        <v>3.034151</v>
+      </c>
+      <c r="I19">
+        <v>0.9457805449469654</v>
+      </c>
+      <c r="J19">
+        <v>0.9457805449469653</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.008676333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.026029</v>
+      </c>
+      <c r="O19">
+        <v>0.0003362221866367304</v>
+      </c>
+      <c r="P19">
+        <v>0.0003362221866367304</v>
+      </c>
+      <c r="Q19">
+        <v>0.008775101819888886</v>
+      </c>
+      <c r="R19">
+        <v>0.07897591637899999</v>
+      </c>
+      <c r="S19">
+        <v>0.0003179924029005472</v>
+      </c>
+      <c r="T19">
+        <v>0.0003179924029005472</v>
       </c>
     </row>
   </sheetData>
